--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_6_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225547.141488093</v>
+        <v>3225547.141488089</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.340501773</v>
+        <v>3940022.790763306</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.340501773</v>
+        <v>3940022.790763306</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.01858674</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
         <v>108.929687778141</v>
@@ -910,7 +910,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F5" t="n">
         <v>404.8896287080119</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E17" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F17" t="n">
         <v>404.8896287080119</v>
@@ -1909,7 +1909,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V17" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W17" t="n">
         <v>638.3734759809475</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
         <v>397.8840054528454</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2623,7 +2623,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W26" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X26" t="n">
         <v>592.2818334606677</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2748,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>481.9993129554326</v>
       </c>
       <c r="C29" t="n">
-        <v>449.474578242852</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557397079</v>
@@ -2851,7 +2851,7 @@
         <v>361.0088210685126</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118391</v>
+        <v>559.5765741204229</v>
       </c>
       <c r="U29" t="n">
         <v>648.7514272017352</v>
@@ -2860,13 +2860,13 @@
         <v>629.851024166682</v>
       </c>
       <c r="W29" t="n">
-        <v>636.9851316898144</v>
+        <v>638.3734759808057</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605258</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826645</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821978978</v>
+        <v>350.6276822437085</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151046196</v>
+        <v>408.1929150588091</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777493</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C32" t="n">
         <v>449.4745782429939</v>
@@ -3049,7 +3049,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4327,34 +4327,34 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6099.925821879237</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4406,7 +4406,7 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H3" t="n">
         <v>250.9899876546879</v>
@@ -4470,46 +4470,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4524,22 +4524,22 @@
         <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4558,13 +4558,13 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4573,28 +4573,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>1901.586501346477</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L5" t="n">
-        <v>2819.17922466306</v>
+        <v>3585.390275303557</v>
       </c>
       <c r="M5" t="n">
-        <v>3301.358424176563</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N5" t="n">
-        <v>3866.401488049235</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O5" t="n">
-        <v>4776.556370989979</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4707,46 +4707,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4758,25 +4758,25 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,49 +4786,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4983,7 +4983,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,49 +5023,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5074,25 +5074,25 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5181,25 +5181,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
         <v>140.96</v>
@@ -5211,46 +5211,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5284,22 +5284,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L14" t="n">
-        <v>2819.17922466306</v>
+        <v>3585.390275303557</v>
       </c>
       <c r="M14" t="n">
-        <v>3301.358424176563</v>
+        <v>4067.569474817059</v>
       </c>
       <c r="N14" t="n">
-        <v>3866.401488049235</v>
+        <v>4632.612538689732</v>
       </c>
       <c r="O14" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P14" t="n">
         <v>6474.295852434775</v>
@@ -5311,25 +5311,25 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5448,46 +5448,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
         <v>1303.215227044376</v>
@@ -5518,31 +5518,31 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>2836.195545690814</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5557,16 +5557,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5685,34 +5685,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
         <v>140.96</v>
@@ -5734,16 +5734,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
         <v>894.2358041069906</v>
@@ -5755,55 +5755,55 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K20" t="n">
-        <v>1713.790319599031</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L20" t="n">
-        <v>2631.383042915614</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5922,40 +5922,40 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1901.586501346477</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2819.17922466306</v>
+        <v>2936.062862426063</v>
       </c>
       <c r="M23" t="n">
-        <v>3301.358424176563</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N23" t="n">
-        <v>3866.401488049235</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O23" t="n">
-        <v>4776.556370989979</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6183,22 +6183,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6229,46 +6229,46 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>1830.673957362034</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L26" t="n">
-        <v>2748.266680678617</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M26" t="n">
-        <v>4280.114215286949</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
         <v>4181.776441881509</v>
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6396,34 +6396,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715517973</v>
+        <v>2580.161715518117</v>
       </c>
       <c r="C29" t="n">
         <v>2126.146990020143</v>
@@ -6466,28 +6466,28 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K29" t="n">
-        <v>1713.790319599031</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L29" t="n">
-        <v>2631.383042915614</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
         <v>6931.116362236997</v>
@@ -6499,22 +6499,22 @@
         <v>6683.34462518332</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464291</v>
+        <v>6118.115762435418</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543346</v>
+        <v>5462.811290514474</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819425</v>
+        <v>4826.598134790553</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441880218</v>
+        <v>4181.776441880648</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637263</v>
+        <v>3583.51196363755</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402248</v>
+        <v>3067.029708402392</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.70787425084</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306374176</v>
+        <v>5571.538498247094</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422430115</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6633,46 +6633,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6703,28 +6703,28 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>1765.421978263786</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L32" t="n">
-        <v>2683.01470158037</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M32" t="n">
-        <v>3165.193901093872</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N32" t="n">
-        <v>3866.401488049235</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O32" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6870,46 +6870,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6940,31 +6940,31 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>1408.776586572602</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L35" t="n">
-        <v>2326.369309889185</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M35" t="n">
-        <v>2808.548509402688</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N35" t="n">
-        <v>3373.59157327536</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O35" t="n">
-        <v>4283.746456216104</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P35" t="n">
-        <v>5981.4859376609</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7107,46 +7107,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1901.586501346477</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L38" t="n">
-        <v>2819.17922466306</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M38" t="n">
-        <v>3301.358424176563</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N38" t="n">
-        <v>3866.401488049235</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O38" t="n">
-        <v>4776.556370989979</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7344,46 +7344,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
         <v>894.2358041069906</v>
@@ -7435,34 +7435,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P41" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
-        <v>6978.643702470889</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7581,46 +7581,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7657,22 +7657,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7681,25 +7681,25 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7818,28 +7818,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
         <v>140.96</v>
@@ -7981,19 +7981,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>378.1515460156957</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8221,16 +8221,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>491.4928437002177</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>214.6916570402922</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8239,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>96.62737647160202</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>491.4928437002175</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>96.62737647160168</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,34 +9166,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>97.98316547195645</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>301.7997308240091</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>255.6042028744382</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>61.18810711406104</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>685.9089394605949</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>496.2158265843866</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>214.890922265086</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K29" t="n">
-        <v>378.1515460156963</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
         <v>430.3047365861567</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>137.5399223057481</v>
+        <v>315.9139665186111</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>70.0568661910213</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,19 +10603,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>315.9139665186111</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>491.4928437002177</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,19 +10840,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>839.6117546116195</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,13 +11083,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q41" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
-        <v>246.5337019566904</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>29.34358558166832</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23451,7 +23451,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>107.6476277959926</v>
@@ -23466,7 +23466,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q13" t="n">
-        <v>505.228266425598</v>
+        <v>371.871401121918</v>
       </c>
       <c r="R13" t="n">
         <v>608.1413738827905</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>107.6476277959926</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>198.7676812603561</v>
+        <v>65.41081595667603</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>107.6476277959926</v>
@@ -23949,13 +23949,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>198.7676812603561</v>
+        <v>65.41081595667603</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24198,7 +24198,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X22" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y22" t="n">
         <v>287.4653528494624</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24387,10 +24387,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24636,16 +24636,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O28" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P28" t="n">
         <v>368.8061924102448</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.388344291416161</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.388344290991199</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995418916</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699954189444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>131.3616658174982</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26082,7 +26082,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
         <v>150.8146863564251</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929388</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.7835895476</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.0000298013</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791081</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485917</v>
+        <v>5921079.801415534</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.1844573881</v>
+        <v>7020921.67503998</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.548664423</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.6407424459</v>
+        <v>9220605.422288865</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849748</v>
+        <v>10320447.29591331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275021</v>
+        <v>11420289.16953802</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.825170031</v>
+        <v>12520131.04316246</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.5533125599</v>
+        <v>13619972.91678691</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.281455089</v>
+        <v>14719814.79041138</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976181</v>
+        <v>15819656.66403584</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401473</v>
+        <v>16919498.5376603</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577609</v>
+        <v>976017.2062577603</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577605</v>
+        <v>976017.2062577604</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630245</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="G2" t="n">
         <v>874233.2841630246</v>
@@ -26340,28 +26340,28 @@
         <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="J2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>874233.2841632325</v>
+      </c>
+      <c r="L2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="K2" t="n">
-        <v>874233.2841632585</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="N2" t="n">
         <v>874233.284163025</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="P2" t="n">
         <v>874233.2841630247</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="O2" t="n">
-        <v>874233.2841630247</v>
-      </c>
-      <c r="P2" t="n">
-        <v>874233.2841630246</v>
       </c>
     </row>
     <row r="3">
@@ -26432,37 +26432,37 @@
         <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="F4" t="n">
         <v>38928.93672769592</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>38928.9367276959</v>
+      </c>
+      <c r="H4" t="n">
         <v>38928.93672769591</v>
       </c>
-      <c r="G4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38928.93672769592</v>
-      </c>
       <c r="I4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="J4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.936727863</v>
+        <v>38928.93672784431</v>
       </c>
       <c r="L4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
+        <v>38928.93672769592</v>
+      </c>
+      <c r="N4" t="n">
+        <v>38928.93672769592</v>
+      </c>
+      <c r="O4" t="n">
         <v>38928.93672769591</v>
-      </c>
-      <c r="N4" t="n">
-        <v>38928.93672769591</v>
-      </c>
-      <c r="O4" t="n">
-        <v>38928.9367276959</v>
       </c>
       <c r="P4" t="n">
         <v>38928.93672769592</v>
@@ -26527,19 +26527,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355510.071693067</v>
+        <v>-1355510.071693068</v>
       </c>
       <c r="C6" t="n">
-        <v>689490.8793614138</v>
+        <v>689490.8793614137</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313466</v>
+        <v>689793.2400313464</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353286</v>
       </c>
       <c r="F6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="G6" t="n">
         <v>696324.9474353287</v>
@@ -26548,28 +26548,28 @@
         <v>696324.947435329</v>
       </c>
       <c r="I6" t="n">
+        <v>696324.9474353289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>76100.94743532897</v>
+      </c>
+      <c r="K6" t="n">
+        <v>696324.9474353882</v>
+      </c>
+      <c r="L6" t="n">
+        <v>696324.9474353289</v>
+      </c>
+      <c r="M6" t="n">
         <v>696324.947435329</v>
       </c>
-      <c r="J6" t="n">
-        <v>76100.94743532885</v>
-      </c>
-      <c r="K6" t="n">
-        <v>696324.9474353956</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>696324.9474353291</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>696324.947435329</v>
+      </c>
+      <c r="P6" t="n">
         <v>696324.9474353289</v>
-      </c>
-      <c r="N6" t="n">
-        <v>696324.947435329</v>
-      </c>
-      <c r="O6" t="n">
-        <v>696324.9474353289</v>
-      </c>
-      <c r="P6" t="n">
-        <v>696324.9474353287</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,19 +27144,19 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27720,7 +27720,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T4" t="n">
-        <v>349.9327172413398</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
         <v>150.8146863564251</v>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27954,10 +27954,10 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
-        <v>266.3924756327198</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
+        <v>400</v>
+      </c>
+      <c r="P10" t="n">
         <v>388.0294482079483</v>
-      </c>
-      <c r="P10" t="n">
-        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29644,7 +29644,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.418811734765769e-10</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1.418811734765769e-10</v>
@@ -29707,10 +29707,10 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.418811734765769e-10</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.418811734765769e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -34825,19 +34825,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>839.5864044017781</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -35065,16 +35065,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1238.607130132378</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>701.7413535185779</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35083,13 +35083,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35250,10 +35250,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>67.62479437236371</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>843.741662903763</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,10 +35320,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,16 +35536,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35557,10 +35557,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1418.354180383635</v>
+        <v>1762</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1015.975743078414</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36010,34 +36010,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>487.0496964782857</v>
+        <v>585.0328619502421</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1048.91401725617</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>742.6538993527239</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,13 +36268,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>808.3023935462218</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>1612.770276144012</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,19 +36721,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1243.330113016547</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>1547.320742028618</v>
+        <v>701.9406187433716</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36748,7 +36748,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,19 +36958,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K29" t="n">
-        <v>1125.265832447857</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>1242.775303202028</v>
       </c>
       <c r="M29" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -36982,7 +36982,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37195,7 +37195,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
         <v>893.7563986827749</v>
@@ -37204,22 +37204,22 @@
         <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>708.2904918741039</v>
+        <v>886.6645360869669</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37432,34 +37432,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>817.1711526231821</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>886.6645360869669</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,34 +37669,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1238.607130132378</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1410.362324179975</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37927,13 +37927,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q41" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
-        <v>70.05686619102084</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>873.6540180032985</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
